--- a/medicine/Psychotrope/Calvinus_(bière)/Calvinus_(bière).xlsx
+++ b/medicine/Psychotrope/Calvinus_(bière)/Calvinus_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calvinus_(bi%C3%A8re)</t>
+          <t>Calvinus_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bières Calvinus sont des bières artisanales suisses, créées en 1999 à Carouge, dans le canton de Genève[1].
-Le nom est un hommage au théologien et réformateur Jean Calvin[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bières Calvinus sont des bières artisanales suisses, créées en 1999 à Carouge, dans le canton de Genève.
+Le nom est un hommage au théologien et réformateur Jean Calvin.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calvinus_(bi%C3%A8re)</t>
+          <t>Calvinus_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1999, les frères Papinot lancent la première bière artisanale genevoise, issue de leur microbrasserie. A cette période, il s'agit de l'une des premières brasseries artisanales de Suisse romande.
-Le nom a été trouvé par Laurent Papinot, en contemplant une gravure de Jean Calvin sur laquelle figure le nom latin « Calvinus[2] ».
+Le nom a été trouvé par Laurent Papinot, en contemplant une gravure de Jean Calvin sur laquelle figure le nom latin « Calvinus ».
 En 2004, les frères Papinot réalisent leurs premières bières bio (bière blonde et bière blanche).
 En 2023, la nouvelle brasserie devrait ouvrir à Carouge. Parallèlement à la brasserie carougeoise, la production des canettes, fûts et bouteilles est maintenue dans la brasserie industrielle Appenzeler
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calvinus_(bi%C3%A8re)</t>
+          <t>Calvinus_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les frères Papinot sont actifs dans la créations de bières artisanales. Celles-ci sont brassées selon un processus industriel au sein de la brasserie Appenzeller [3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les frères Papinot sont actifs dans la créations de bières artisanales. Celles-ci sont brassées selon un processus industriel au sein de la brasserie Appenzeller .
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calvinus_(bi%C3%A8re)</t>
+          <t>Calvinus_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une édition spéciale de Calvinus (« Les Huguenots ») a été produite en 2020 lors d'une collaboration avec le Grand Théâtre de Genève[4]. Cette collaboration a eu lieu dans le cadre des représentations du grand opéra Les Huguenots de Giacomo Meyerbeer.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une édition spéciale de Calvinus (« Les Huguenots ») a été produite en 2020 lors d'une collaboration avec le Grand Théâtre de Genève. Cette collaboration a eu lieu dans le cadre des représentations du grand opéra Les Huguenots de Giacomo Meyerbeer.
 </t>
         </is>
       </c>
